--- a/biology/Médecine/1357_en_santé_et_médecine/1357_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1357_en_santé_et_médecine/1357_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1357_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1357_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1357 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1357_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1357_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'empereur Charles IV accorde le statut de studium generale aux écoles de Sienne, en Toscane, où la médecine est enseignée depuis le milieu du XIIIe siècle[1].
-Fondation de l'hôpital du Saint-Esprit à Trogir en Dalmatie[2].
-Le Bethlem Royal Hospital de Londres, fondé en 1337 et connu sous le nom de « Bedlam » Hospital, reçoit ses premiers malades mentaux[3].
-Fondation par Pierre Ier le Cruel, roi de Castille, du Real hospital de Santiago de Montouto (es) (« hôpital royal de Saint-Jacques de Montouto ») à Fonsagrada en Galice, pour recevoir les pèlerins en route vers Compostelle par le chemin du Nord[4].
-« Freind, d'après Reyner (en), rapporte qu'en 1357 le nommé J. Falcand de Luca fut le premier apothicaire qui ait vendu des remèdes en Angleterre[5]. »
-On donne, à une maladie qui frappe l'Italie, le nom d'« Influenza di Stelle » (« sous l'influence des étoiles »), qui deviendra « Influenza di Freddo » (« sous l'influence du froid »), mais la première épidémie « dont l'origine grippale rallie la majorité des spécialistes » ne surviendra qu'en 1580[6],</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'empereur Charles IV accorde le statut de studium generale aux écoles de Sienne, en Toscane, où la médecine est enseignée depuis le milieu du XIIIe siècle.
+Fondation de l'hôpital du Saint-Esprit à Trogir en Dalmatie.
+Le Bethlem Royal Hospital de Londres, fondé en 1337 et connu sous le nom de « Bedlam » Hospital, reçoit ses premiers malades mentaux.
+Fondation par Pierre Ier le Cruel, roi de Castille, du Real hospital de Santiago de Montouto (es) (« hôpital royal de Saint-Jacques de Montouto ») à Fonsagrada en Galice, pour recevoir les pèlerins en route vers Compostelle par le chemin du Nord.
+« Freind, d'après Reyner (en), rapporte qu'en 1357 le nommé J. Falcand de Luca fut le premier apothicaire qui ait vendu des remèdes en Angleterre. »
+On donne, à une maladie qui frappe l'Italie, le nom d'« Influenza di Stelle » (« sous l'influence des étoiles »), qui deviendra « Influenza di Freddo » (« sous l'influence du froid »), mais la première épidémie « dont l'origine grippale rallie la majorité des spécialistes » ne surviendra qu'en 1580,</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1357_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1357_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fatḥ Allah (mort en 1413), médecin juif originaire de Tabriz en Iran, secrétaire particulier du sultan mamelouk Barquq[7],[8].
-Muḥammad ibn Abī Bakr Ibn Ǧamāʿa (mort en 1413), médecin actif au Caire, auteur d'ouvrages de médecine et de commentaires des hadiths[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fatḥ Allah (mort en 1413), médecin juif originaire de Tabriz en Iran, secrétaire particulier du sultan mamelouk Barquq,.
+Muḥammad ibn Abī Bakr Ibn Ǧamāʿa (mort en 1413), médecin actif au Caire, auteur d'ouvrages de médecine et de commentaires des hadiths.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1357_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1357_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sadid al-Din al-Kazaruni (en) (né à une date inconnue), médecin persan, auteur d'un commentaire très diffusé sur l'épitomé par Ibn Nafis du Canon d'Avicenne[10].
-Entre 1357 et 1362 : Dominique de Clavasio (né à une date inconnue), probablement astologue du roi de France Jean II le Bon, auteur de Questiones supra perspectivam (« Remarques sur la perspective ») où « il fait une description anatomique de l’œil en se servant des textes médicaux arabes[11] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sadid al-Din al-Kazaruni (en) (né à une date inconnue), médecin persan, auteur d'un commentaire très diffusé sur l'épitomé par Ibn Nafis du Canon d'Avicenne.
+Entre 1357 et 1362 : Dominique de Clavasio (né à une date inconnue), probablement astologue du roi de France Jean II le Bon, auteur de Questiones supra perspectivam (« Remarques sur la perspective ») où « il fait une description anatomique de l’œil en se servant des textes médicaux arabes ».</t>
         </is>
       </c>
     </row>
